--- a/002/dao/xiaotu/gaozhong_yingyu/003.xlsx
+++ b/002/dao/xiaotu/gaozhong_yingyu/003.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EFB3C7-4C6F-4F76-82F3-8AD1188F48BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Documents/test/test6/002/dao/xiaotu/gaozhong_yingyu/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -900,12 +912,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -918,21 +930,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -945,14 +957,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -960,14 +972,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -993,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1003,27 +1015,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,70 +1043,59 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1116,9 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1150,9 +1148,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1173,9 +1168,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1287,12 +1279,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1320,31 +1312,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1372,23 +1347,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1564,130 +1522,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:K1"/>
+      <selection pane="topRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="26.62890625" customWidth="1"/>
-    <col min="4" max="4" width="13.68359375" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" customWidth="1"/>
-    <col min="6" max="6" width="12.734375" customWidth="1"/>
-    <col min="7" max="7" width="15.89453125" customWidth="1"/>
-    <col min="8" max="8" width="13.1015625" customWidth="1"/>
-    <col min="9" max="9" width="10.47265625" customWidth="1"/>
-    <col min="10" max="11" width="9.3671875" customWidth="1"/>
-    <col min="12" max="12" width="13.26171875" customWidth="1"/>
-    <col min="13" max="14" width="8.83984375" customWidth="1"/>
-    <col min="15" max="15" width="10.26171875" customWidth="1"/>
-    <col min="16" max="16" width="14.9453125" customWidth="1"/>
-    <col min="17" max="18" width="8.83984375" customWidth="1"/>
-    <col min="19" max="19" width="10.26171875" customWidth="1"/>
-    <col min="20" max="20" width="13.26171875" customWidth="1"/>
-    <col min="21" max="22" width="8.83984375" customWidth="1"/>
-    <col min="23" max="23" width="4.26171875" customWidth="1"/>
-    <col min="24" max="24" width="13.26171875" customWidth="1"/>
-    <col min="25" max="26" width="8.83984375" customWidth="1"/>
-    <col min="27" max="27" width="10.26171875" customWidth="1"/>
-    <col min="28" max="28" width="13.26171875" customWidth="1"/>
-    <col min="29" max="30" width="8.83984375" customWidth="1"/>
-    <col min="31" max="32" width="10.26171875" customWidth="1"/>
-    <col min="33" max="34" width="8.83984375" customWidth="1"/>
-    <col min="35" max="35" width="12.26171875" customWidth="1"/>
-    <col min="36" max="36" width="13.68359375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="8.83984375" customWidth="1"/>
-    <col min="38" max="38" width="12.734375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="26" width="8.83203125" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" customWidth="1"/>
+    <col min="31" max="32" width="10.33203125" customWidth="1"/>
+    <col min="33" max="34" width="8.83203125" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="8.83203125" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" customWidth="1"/>
     <col min="39" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="13.68359375" customWidth="1"/>
-    <col min="42" max="42" width="12.734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" customWidth="1"/>
+    <col min="42" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:44" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="35" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="35" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="35" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="35" t="s">
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="32" t="s">
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="30" t="s">
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
+    <row r="2" spans="1:44" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +1655,7 @@
       <c r="F2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1706,7 +1664,7 @@
       <c r="I2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>167</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1781,7 +1739,7 @@
       <c r="AH2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AJ2" s="2" t="s">
@@ -1793,7 +1751,7 @@
       <c r="AL2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AN2" s="2" t="s">
@@ -1805,22 +1763,22 @@
       <c r="AP2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="31"/>
-    </row>
-    <row r="3" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="AR2" s="28"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>390696</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
@@ -1830,8 +1788,8 @@
         <f>IF(E3="",0,E3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2">
@@ -1841,67 +1799,67 @@
         <f>IF(I3="",0,I3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>7.5</v>
       </c>
       <c r="N3" s="2">
         <f>IF(Q3="",0,Q3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>7.5</v>
       </c>
       <c r="R3" s="2">
         <f>IF(U3="",0,U3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="14"/>
+      <c r="T3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="14">
         <v>7.5</v>
       </c>
       <c r="V3" s="2">
         <f>IF(Y3="",0,Y3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="14" t="s">
+      <c r="W3" s="14"/>
+      <c r="X3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="14">
         <v>7.5</v>
       </c>
       <c r="Z3" s="2">
         <f>IF(AC3="",0,AC3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="14" t="s">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="14">
         <v>7.5</v>
       </c>
       <c r="AD3" s="2">
         <f>IF(AG3="",0,AG3/150*100)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="15"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="1"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="AK3" s="2">
@@ -1911,8 +1869,8 @@
         <f>IF(AK3="",0,AK3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="14" t="s">
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="AO3" s="2">
@@ -1922,23 +1880,23 @@
         <f>IF(AO3="",0,AO3/150*100)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="25">
-        <f>(AP3+AL3+F3+AH3+AD3+Z3+V3+R3+N3+J3)/10</f>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="23">
+        <f t="shared" ref="AR3:AR34" si="0">(AP3+AL3+F3+AH3+AD3+Z3+V3+R3+N3+J3)/10</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>390698</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="2">
@@ -1948,78 +1906,78 @@
         <f>IF(E4="",0,E4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>22.5</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J67" si="0">IF(I4="",0,I4/150*100)</f>
+        <f t="shared" ref="J4:J67" si="1">IF(I4="",0,I4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>22.5</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4" si="1">IF(M4="",0,M4/150*100)</f>
+        <f t="shared" ref="N4" si="2">IF(M4="",0,M4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>22.5</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R5" si="2">IF(Q4="",0,Q4/150*100)</f>
+        <f t="shared" ref="R4:R5" si="3">IF(Q4="",0,Q4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="14">
         <v>22.5</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" ref="V4:V6" si="3">IF(U4="",0,U4/150*100)</f>
+        <f t="shared" ref="V4:V6" si="4">IF(U4="",0,U4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15" t="s">
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="14">
         <v>22.5</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z5" si="4">IF(Y4="",0,Y4/150*100)</f>
+        <f t="shared" ref="Z4:Z5" si="5">IF(Y4="",0,Y4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15" t="s">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="14">
         <v>22.5</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" ref="AD4:AD5" si="5">IF(AC4="",0,AC4/150*100)</f>
+        <f t="shared" ref="AD4:AD5" si="6">IF(AC4="",0,AC4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="15" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>77</v>
       </c>
       <c r="AK4" s="2">
@@ -2029,8 +1987,8 @@
         <f>IF(AK4="",0,AK4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="15" t="s">
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="14" t="s">
         <v>77</v>
       </c>
       <c r="AO4" s="2">
@@ -2040,92 +1998,92 @@
         <f>IF(AO4="",0,AO4/150*100)</f>
         <v>15</v>
       </c>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="25">
-        <f>(AP4+AL4+F4+AH4+AD4+Z4+V4+R4+N4+J4)/10</f>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="23">
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:44" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>390790</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>10</v>
       </c>
       <c r="F5" s="2">
         <f>IF(E5="",0,E5/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="26">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5" si="6">IF(I5="",0,I5/150*100)</f>
+        <f t="shared" ref="J5" si="7">IF(I5="",0,I5/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>200</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="U5" s="29">
-        <v>10</v>
-      </c>
-      <c r="V5" s="2">
         <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="14" t="s">
+      <c r="S5" s="14"/>
+      <c r="T5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5" s="26">
+        <v>10</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="4"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="13" t="s">
         <v>182</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="14" t="s">
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="13" t="s">
         <v>207</v>
       </c>
       <c r="AD5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="AE5" s="15"/>
+      <c r="AE5" s="14"/>
       <c r="AF5" s="3" t="s">
         <v>174</v>
       </c>
@@ -2138,10 +2096,10 @@
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="9"/>
+      <c r="AK5" s="8"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="14" t="s">
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="13" t="s">
         <v>174</v>
       </c>
       <c r="AO5" s="2">
@@ -2151,20 +2109,20 @@
         <f>IF(AO5="",0,AO5/150*100)</f>
         <v>5</v>
       </c>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="25">
-        <f>(AP5+AL5+F5+AH5+AD5+Z5+V5+R5+N5+J5)/10</f>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="23">
+        <f t="shared" si="0"/>
         <v>5.458333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>390788</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2177,73 +2135,73 @@
         <f>IF(E6="",0,E6/150*100)</f>
         <v>25</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>184</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>184</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N8" si="7">IF(M6="",0,M6/150*100)</f>
+        <f t="shared" ref="N6:N8" si="8">IF(M6="",0,M6/150*100)</f>
         <v>25</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="26">
         <v>45</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ref="R6" si="8">IF(Q6="",0,Q6/150*100)</f>
+        <f t="shared" ref="R6" si="9">IF(Q6="",0,Q6/150*100)</f>
         <v>30</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="14" t="s">
+      <c r="S6" s="14"/>
+      <c r="T6" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="26">
         <v>37.5</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="14" t="s">
+      <c r="W6" s="14"/>
+      <c r="X6" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="13" t="s">
         <v>184</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" ref="Z6" si="9">IF(Y6="",0,Y6/150*100)</f>
+        <f t="shared" ref="Z6" si="10">IF(Y6="",0,Y6/150*100)</f>
         <v>25</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="14" t="s">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AC6" s="13" t="s">
         <v>184</v>
       </c>
       <c r="AD6" s="2">
-        <f t="shared" ref="AD6" si="10">IF(AC6="",0,AC6/150*100)</f>
+        <f t="shared" ref="AD6" si="11">IF(AC6="",0,AC6/150*100)</f>
         <v>25</v>
       </c>
-      <c r="AE6" s="15"/>
+      <c r="AE6" s="14"/>
       <c r="AF6" s="3" t="s">
         <v>197</v>
       </c>
@@ -2251,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" ref="AH5:AH39" si="11">IF(AG6="",0,AG6/120*100)</f>
+        <f t="shared" ref="AH6:AH39" si="12">IF(AG6="",0,AG6/120*100)</f>
         <v>25</v>
       </c>
       <c r="AI6" s="3"/>
@@ -2265,7 +2223,7 @@
         <f>IF(AK6="",0,AK6/150*100)</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="AM6" s="9"/>
+      <c r="AM6" s="8"/>
       <c r="AN6" s="3" t="s">
         <v>217</v>
       </c>
@@ -2276,20 +2234,20 @@
         <f>IF(AO6="",0,AO6/150*100)</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="25">
-        <f>(AP6+AL6+F6+AH6+AD6+Z6+V6+R6+N6+J6)/10</f>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="23">
+        <f t="shared" si="0"/>
         <v>25.833333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:44" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>390794</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2303,37 +2261,37 @@
         <v>5</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="29"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="26"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14" t="s">
+      <c r="W7" s="14"/>
+      <c r="X7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="13" t="s">
         <v>183</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="15"/>
+      <c r="AE7" s="14"/>
       <c r="AF7" s="3" t="s">
         <v>209</v>
       </c>
@@ -2341,14 +2299,14 @@
         <v>10</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AK7" s="8">
         <v>7.5</v>
       </c>
       <c r="AL7" s="2">
@@ -2359,7 +2317,7 @@
       <c r="AN7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AO7" s="8">
         <v>7.5</v>
       </c>
       <c r="AP7" s="2">
@@ -2367,63 +2325,63 @@
         <v>5</v>
       </c>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="25">
-        <f>(AP7+AL7+F7+AH7+AD7+Z7+V7+R7+N7+J7)/10</f>
+      <c r="AR7" s="23">
+        <f t="shared" si="0"/>
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:44" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>390796</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>182</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8" si="12">IF(I8="",0,I8/150*100)</f>
+        <f t="shared" ref="J8" si="13">IF(I8="",0,I8/150*100)</f>
         <v>5</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="26">
         <v>17.5</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="29"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="26"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="29"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="26"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="29"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="29"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="26"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="15"/>
+      <c r="AE8" s="14"/>
       <c r="AF8" s="3" t="s">
         <v>211</v>
       </c>
@@ -2431,7 +2389,7 @@
         <v>7.5</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.25</v>
       </c>
       <c r="AI8" s="3"/>
@@ -2443,59 +2401,59 @@
       <c r="AO8" s="3"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="25">
-        <f>(AP8+AL8+F8+AH8+AD8+Z8+V8+R8+N8+J8)/10</f>
+      <c r="AR8" s="23">
+        <f t="shared" si="0"/>
         <v>2.2916666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>390792</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="29"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="26"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="26">
         <v>7.5</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" ref="V9" si="13">IF(U9="",0,U9/150*100)</f>
+        <f t="shared" ref="V9" si="14">IF(U9="",0,U9/150*100)</f>
         <v>5</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="15"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="2"/>
@@ -2503,7 +2461,7 @@
       <c r="AJ9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AK9" s="8">
         <v>7.5</v>
       </c>
       <c r="AL9" s="2">
@@ -2512,55 +2470,55 @@
       </c>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="9"/>
+      <c r="AO9" s="8"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="25">
-        <f>(AP9+AL9+F9+AH9+AD9+Z9+V9+R9+N9+J9)/10</f>
+      <c r="AR9" s="23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>390798</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="15"/>
+      <c r="AE10" s="14"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="2"/>
@@ -2573,66 +2531,66 @@
       <c r="AO10" s="3"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="25">
-        <f>(AP10+AL10+F10+AH10+AD10+Z10+V10+R10+N10+J10)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+      <c r="AR10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="2">
         <v>390811</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15" t="s">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="U11" s="15"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="2">
         <v>0</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="15"/>
+      <c r="AE11" s="14"/>
       <c r="AF11" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI11" s="3"/>
@@ -2648,12 +2606,12 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="25">
-        <f>(AP11+AL11+F11+AH11+AD11+Z11+V11+R11+N11+J11)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>156</v>
       </c>
@@ -2667,41 +2625,41 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="16"/>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="3" t="s">
         <v>210</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI12" s="3"/>
@@ -2717,50 +2675,50 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="25">
-        <f>(AP12+AL12+F12+AH12+AD12+Z12+V12+R12+N12+J12)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="AR12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
         <v>149</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="16"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="2"/>
@@ -2773,50 +2731,50 @@
       <c r="AO13" s="3"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="25">
-        <f>(AP13+AL13+F13+AH13+AD13+Z13+V13+R13+N13+J13)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="AR13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>160</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="16"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="2"/>
@@ -2829,50 +2787,50 @@
       <c r="AO14" s="3"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="25">
-        <f>(AP14+AL14+F14+AH14+AD14+Z14+V14+R14+N14+J14)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+      <c r="AR14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
         <v>164</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="2"/>
@@ -2885,12 +2843,12 @@
       <c r="AO15" s="3"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="25">
-        <f>(AP15+AL15+F15+AH15+AD15+Z15+V15+R15+N15+J15)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR15" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2905,59 +2863,59 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:F38" si="14">IF(E16="",0,E16/140*100)</f>
+        <f t="shared" ref="F16:F38" si="15">IF(E16="",0,E16/140*100)</f>
         <v>0</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="15" t="s">
+      <c r="O16" s="15"/>
+      <c r="P16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16" t="s">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="U16" s="16"/>
+      <c r="U16" s="15"/>
       <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="14" t="s">
+      <c r="W16" s="15"/>
+      <c r="X16" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Y16" s="16"/>
+      <c r="Y16" s="15"/>
       <c r="Z16" s="2">
         <v>0</v>
       </c>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16" t="s">
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="AC16" s="16"/>
+      <c r="AC16" s="15"/>
       <c r="AD16" s="2">
         <v>0</v>
       </c>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="15"/>
       <c r="AF16" s="3" t="s">
         <v>211</v>
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI16" s="3"/>
@@ -2969,12 +2927,12 @@
       <c r="AO16" s="3"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="3"/>
-      <c r="AR16" s="25">
-        <f>(AP16+AL16+F16+AH16+AD16+Z16+V16+R16+N16+J16)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
@@ -2988,33 +2946,33 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="16"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="2"/>
@@ -3027,12 +2985,12 @@
       <c r="AO17" s="3"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="3"/>
-      <c r="AR17" s="25">
-        <f>(AP17+AL17+F17+AH17+AD17+Z17+V17+R17+N17+J17)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AR17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -3046,33 +3004,33 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="16"/>
+      <c r="AE18" s="15"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="2"/>
@@ -3085,13 +3043,13 @@
       <c r="AO18" s="3"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="3"/>
-      <c r="AR18" s="25">
-        <f>(AP18+AL18+F18+AH18+AD18+Z18+V18+R18+N18+J18)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" ht="15.3" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
+      <c r="AR18" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="3">
@@ -3104,33 +3062,33 @@
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="16"/>
+      <c r="AE19" s="15"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="2"/>
@@ -3143,13 +3101,13 @@
       <c r="AO19" s="3"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="25">
-        <f>(AP19+AL19+F19+AH19+AD19+Z19+V19+R19+N19+J19)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" ht="15.3" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="AR19" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B20" s="3">
@@ -3162,33 +3120,33 @@
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="16"/>
+      <c r="AE20" s="15"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="2"/>
@@ -3201,13 +3159,13 @@
       <c r="AO20" s="3"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="25">
-        <f>(AP20+AL20+F20+AH20+AD20+Z20+V20+R20+N20+J20)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" ht="15.3" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="AR20" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="3">
@@ -3221,51 +3179,51 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="15" t="s">
+      <c r="O21" s="15"/>
+      <c r="P21" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="U21" s="16"/>
+      <c r="U21" s="15"/>
       <c r="V21" s="2">
         <v>0</v>
       </c>
-      <c r="W21" s="16"/>
-      <c r="X21" s="14" t="s">
+      <c r="W21" s="15"/>
+      <c r="X21" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="Y21" s="16"/>
+      <c r="Y21" s="15"/>
       <c r="Z21" s="2">
         <v>0</v>
       </c>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16" t="s">
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="AC21" s="16"/>
+      <c r="AC21" s="15"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="16"/>
+      <c r="AE21" s="15"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="2"/>
@@ -3275,7 +3233,7 @@
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <f t="shared" ref="AL21:AL23" si="15">IF(AK21="",0,AK21/140*100)</f>
+        <f t="shared" ref="AL21:AL23" si="16">IF(AK21="",0,AK21/140*100)</f>
         <v>0</v>
       </c>
       <c r="AM21" s="3"/>
@@ -3283,12 +3241,12 @@
       <c r="AO21" s="3"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="3"/>
-      <c r="AR21" s="25">
-        <f>(AP21+AL21+F21+AH21+AD21+Z21+V21+R21+N21+J21)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR21" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -3302,33 +3260,33 @@
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="16"/>
+      <c r="AE22" s="15"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="2"/>
@@ -3341,12 +3299,12 @@
       <c r="AO22" s="3"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="3"/>
-      <c r="AR22" s="25">
-        <f>(AP22+AL22+F22+AH22+AD22+Z22+V22+R22+N22+J22)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR22" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>112</v>
       </c>
@@ -3361,61 +3319,61 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="M23" s="16"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16" t="s">
+      <c r="O23" s="15"/>
+      <c r="P23" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16" t="s">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="U23" s="16"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="2">
         <v>0</v>
       </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16" t="s">
+      <c r="W23" s="15"/>
+      <c r="X23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Y23" s="16"/>
+      <c r="Y23" s="15"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16" t="s">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="AC23" s="16"/>
+      <c r="AC23" s="15"/>
       <c r="AD23" s="2">
         <v>0</v>
       </c>
-      <c r="AE23" s="16"/>
+      <c r="AE23" s="15"/>
       <c r="AF23" s="3" t="s">
         <v>197</v>
       </c>
       <c r="AG23" s="3"/>
       <c r="AH23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI23" s="3"/>
@@ -3424,7 +3382,7 @@
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM23" s="3"/>
@@ -3433,16 +3391,16 @@
       </c>
       <c r="AO23" s="3"/>
       <c r="AP23" s="2">
-        <f t="shared" ref="AP23" si="16">IF(AO23="",0,AO23/140*100)</f>
+        <f t="shared" ref="AP23" si="17">IF(AO23="",0,AO23/140*100)</f>
         <v>0</v>
       </c>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="25">
-        <f>(AP23+AL23+F23+AH23+AD23+Z23+V23+R23+N23+J23)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR23" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -3456,33 +3414,33 @@
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="16"/>
+      <c r="AE24" s="15"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="2"/>
@@ -3495,50 +3453,50 @@
       <c r="AO24" s="3"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="3"/>
-      <c r="AR24" s="25">
-        <f>(AP24+AL24+F24+AH24+AD24+Z24+V24+R24+N24+J24)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="AR24" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
         <v>153</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="16"/>
+      <c r="AE25" s="15"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="2"/>
@@ -3551,12 +3509,12 @@
       <c r="AO25" s="3"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="3"/>
-      <c r="AR25" s="25">
-        <f>(AP25+AL25+F25+AH25+AD25+Z25+V25+R25+N25+J25)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR25" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -3570,33 +3528,33 @@
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="16"/>
+      <c r="AE26" s="15"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="2"/>
@@ -3609,12 +3567,12 @@
       <c r="AO26" s="3"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="3"/>
-      <c r="AR26" s="25">
-        <f>(AP26+AL26+F26+AH26+AD26+Z26+V26+R26+N26+J26)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR26" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -3628,33 +3586,33 @@
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="16"/>
+      <c r="AE27" s="15"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="2"/>
@@ -3667,12 +3625,12 @@
       <c r="AO27" s="3"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="3"/>
-      <c r="AR27" s="25">
-        <f>(AP27+AL27+F27+AH27+AD27+Z27+V27+R27+N27+J27)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR27" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
@@ -3686,33 +3644,33 @@
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="16"/>
+      <c r="AE28" s="15"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="2"/>
@@ -3725,12 +3683,12 @@
       <c r="AO28" s="3"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="3"/>
-      <c r="AR28" s="25">
-        <f>(AP28+AL28+F28+AH28+AD28+Z28+V28+R28+N28+J28)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR28" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -3744,33 +3702,33 @@
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="16"/>
+      <c r="AE29" s="15"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="2"/>
@@ -3783,12 +3741,12 @@
       <c r="AO29" s="3"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="3"/>
-      <c r="AR29" s="25">
-        <f>(AP29+AL29+F29+AH29+AD29+Z29+V29+R29+N29+J29)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR29" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>125</v>
       </c>
@@ -3802,33 +3760,33 @@
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="16"/>
+      <c r="AE30" s="15"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="2"/>
@@ -3841,12 +3799,12 @@
       <c r="AO30" s="3"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="25">
-        <f>(AP30+AL30+F30+AH30+AD30+Z30+V30+R30+N30+J30)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR30" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -3860,33 +3818,33 @@
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="16"/>
+      <c r="AE31" s="15"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="2"/>
@@ -3899,12 +3857,12 @@
       <c r="AO31" s="3"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="3"/>
-      <c r="AR31" s="25">
-        <f>(AP31+AL31+F31+AH31+AD31+Z31+V31+R31+N31+J31)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR31" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
@@ -3918,33 +3876,33 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="16"/>
+      <c r="AE32" s="15"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="2"/>
@@ -3957,13 +3915,13 @@
       <c r="AO32" s="3"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="25">
-        <f>(AP32+AL32+F32+AH32+AD32+Z32+V32+R32+N32+J32)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A33" s="26" t="s">
+      <c r="AR32" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="3">
@@ -3983,72 +3941,72 @@
         <v>6.666666666666667</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="3">
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16" t="s">
+      <c r="K33" s="15"/>
+      <c r="L33" s="15" t="s">
         <v>113</v>
       </c>
       <c r="M33" s="3">
         <v>10</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" ref="N33:N39" si="17">IF(M33="",0,M33/150*100)</f>
+        <f t="shared" ref="N33:N39" si="18">IF(M33="",0,M33/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16" t="s">
+      <c r="O33" s="15"/>
+      <c r="P33" s="15" t="s">
         <v>113</v>
       </c>
       <c r="Q33" s="3">
         <v>10</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" ref="R33:R39" si="18">IF(Q33="",0,Q33/150*100)</f>
+        <f t="shared" ref="R33:R39" si="19">IF(Q33="",0,Q33/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16" t="s">
+      <c r="S33" s="15"/>
+      <c r="T33" s="15" t="s">
         <v>113</v>
       </c>
       <c r="U33" s="3">
         <v>10</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" ref="V33:V39" si="19">IF(U33="",0,U33/150*100)</f>
+        <f t="shared" ref="V33:V39" si="20">IF(U33="",0,U33/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16" t="s">
+      <c r="W33" s="15"/>
+      <c r="X33" s="15" t="s">
         <v>113</v>
       </c>
       <c r="Y33" s="3">
         <v>10</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" ref="Z33:Z39" si="20">IF(Y33="",0,Y33/150*100)</f>
+        <f t="shared" ref="Z33:Z39" si="21">IF(Y33="",0,Y33/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16" t="s">
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15" t="s">
         <v>113</v>
       </c>
       <c r="AC33" s="3">
         <v>10</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" ref="AD33:AD39" si="21">IF(AC33="",0,AC33/150*100)</f>
+        <f t="shared" ref="AD33:AD39" si="22">IF(AC33="",0,AC33/150*100)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AE33" s="16"/>
+      <c r="AE33" s="15"/>
       <c r="AF33" s="3" t="s">
         <v>113</v>
       </c>
@@ -4056,7 +4014,7 @@
         <v>10</v>
       </c>
       <c r="AH33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="AI33" s="3"/>
@@ -4082,12 +4040,12 @@
         <v>6.666666666666667</v>
       </c>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="25">
-        <f>(AP33+AL33+F33+AH33+AD33+Z33+V33+R33+N33+J33)/10</f>
+      <c r="AR33" s="23">
+        <f t="shared" si="0"/>
         <v>6.833333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -4100,46 +4058,46 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="3"/>
       <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="3"/>
       <c r="N34" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
       <c r="U34" s="3"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="16"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="15"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="2"/>
@@ -4152,12 +4110,12 @@
       <c r="AO34" s="3"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="3"/>
-      <c r="AR34" s="25">
-        <f>(AP34+AL34+F34+AH34+AD34+Z34+V34+R34+N34+J34)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR34" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>144</v>
       </c>
@@ -4170,46 +4128,46 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="3"/>
       <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="3"/>
       <c r="N35" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
       <c r="U35" s="3"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="16"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="15"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="2"/>
@@ -4222,12 +4180,12 @@
       <c r="AO35" s="3"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="3"/>
-      <c r="AR35" s="25">
-        <f>(AP35+AL35+F35+AH35+AD35+Z35+V35+R35+N35+J35)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR35" s="23">
+        <f t="shared" ref="AR35:AR66" si="23">(AP35+AL35+F35+AH35+AD35+Z35+V35+R35+N35+J35)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -4240,46 +4198,46 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="3"/>
       <c r="N36" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
       <c r="U36" s="3"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="16"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="15"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="2"/>
@@ -4292,12 +4250,12 @@
       <c r="AO36" s="3"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="3"/>
-      <c r="AR36" s="25">
-        <f>(AP36+AL36+F36+AH36+AD36+Z36+V36+R36+N36+J36)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR36" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
@@ -4310,46 +4268,46 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
       <c r="Z37" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
       <c r="AD37" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="16"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="15"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="2"/>
@@ -4362,12 +4320,12 @@
       <c r="AO37" s="3"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="25">
-        <f>(AP37+AL37+F37+AH37+AD37+Z37+V37+R37+N37+J37)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR37" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -4380,46 +4338,46 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
       <c r="Z38" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
       <c r="AD38" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="16"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="15"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="2"/>
@@ -4432,13 +4390,13 @@
       <c r="AO38" s="3"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="3"/>
-      <c r="AR38" s="25">
-        <f>(AP38+AL38+F38+AH38+AD38+Z38+V38+R38+N38+J38)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A39" s="26" t="s">
+      <c r="AR38" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="3">
@@ -4458,72 +4416,72 @@
         <v>10</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16" t="s">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="15" t="s">
         <v>186</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R39" s="2">
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16" t="s">
+      <c r="O39" s="15"/>
+      <c r="P39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U39" s="16" t="s">
+      <c r="Q39" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="V39" s="2">
+      <c r="R39" s="2">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16" t="s">
+      <c r="S39" s="15"/>
+      <c r="T39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Y39" s="16" t="s">
+      <c r="U39" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="V39" s="2">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16" t="s">
+      <c r="W39" s="15"/>
+      <c r="X39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC39" s="16" t="s">
+      <c r="Y39" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="Z39" s="2">
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="AE39" s="16"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC39" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="AE39" s="15"/>
       <c r="AF39" s="3" t="s">
         <v>16</v>
       </c>
@@ -4531,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="AH39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
       <c r="AI39" s="3"/>
@@ -4557,12 +4515,12 @@
         <v>10</v>
       </c>
       <c r="AQ39" s="3"/>
-      <c r="AR39" s="25">
-        <f>(AP39+AL39+F39+AH39+AD39+Z39+V39+R39+N39+J39)/10</f>
+      <c r="AR39" s="23">
+        <f t="shared" si="23"/>
         <v>10.25</v>
       </c>
     </row>
-    <row r="40" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
@@ -4576,33 +4534,33 @@
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="16"/>
+      <c r="AE40" s="15"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="2"/>
@@ -4615,12 +4573,12 @@
       <c r="AO40" s="3"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="3"/>
-      <c r="AR40" s="25">
-        <f>(AP40+AL40+F40+AH40+AD40+Z40+V40+R40+N40+J40)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR40" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
@@ -4634,33 +4592,33 @@
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="16"/>
+      <c r="AE41" s="15"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="2"/>
@@ -4673,12 +4631,12 @@
       <c r="AO41" s="3"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="3"/>
-      <c r="AR41" s="25">
-        <f>(AP41+AL41+F41+AH41+AD41+Z41+V41+R41+N41+J41)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR41" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>64</v>
       </c>
@@ -4692,33 +4650,33 @@
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="16"/>
+      <c r="AE42" s="15"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="2"/>
@@ -4731,12 +4689,12 @@
       <c r="AO42" s="3"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="3"/>
-      <c r="AR42" s="25">
-        <f>(AP42+AL42+F42+AH42+AD42+Z42+V42+R42+N42+J42)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR42" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>80</v>
       </c>
@@ -4750,33 +4708,33 @@
       <c r="E43" s="3"/>
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="16"/>
+      <c r="AE43" s="15"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="2"/>
@@ -4789,12 +4747,12 @@
       <c r="AO43" s="3"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="3"/>
-      <c r="AR43" s="25">
-        <f>(AP43+AL43+F43+AH43+AD43+Z43+V43+R43+N43+J43)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR43" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>114</v>
       </c>
@@ -4808,33 +4766,33 @@
       <c r="E44" s="3"/>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="16"/>
+      <c r="AE44" s="15"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="2"/>
@@ -4847,12 +4805,12 @@
       <c r="AO44" s="3"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="3"/>
-      <c r="AR44" s="25">
-        <f>(AP44+AL44+F44+AH44+AD44+Z44+V44+R44+N44+J44)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR44" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>114</v>
       </c>
@@ -4866,33 +4824,33 @@
       <c r="E45" s="3"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="16"/>
+      <c r="AE45" s="15"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="2"/>
@@ -4905,12 +4863,12 @@
       <c r="AO45" s="3"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="3"/>
-      <c r="AR45" s="25">
-        <f>(AP45+AL45+F45+AH45+AD45+Z45+V45+R45+N45+J45)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR45" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -4924,33 +4882,33 @@
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="16"/>
+      <c r="AE46" s="15"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="2"/>
@@ -4963,12 +4921,12 @@
       <c r="AO46" s="3"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="3"/>
-      <c r="AR46" s="25">
-        <f>(AP46+AL46+F46+AH46+AD46+Z46+V46+R46+N46+J46)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR46" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>140</v>
       </c>
@@ -4982,33 +4940,33 @@
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="16"/>
+      <c r="AE47" s="15"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="2"/>
@@ -5021,12 +4979,12 @@
       <c r="AO47" s="3"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="3"/>
-      <c r="AR47" s="25">
-        <f>(AP47+AL47+F47+AH47+AD47+Z47+V47+R47+N47+J47)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR47" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>139</v>
       </c>
@@ -5040,33 +4998,33 @@
       <c r="E48" s="3"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="16"/>
+      <c r="AE48" s="15"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="2"/>
@@ -5079,12 +5037,12 @@
       <c r="AO48" s="3"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="3"/>
-      <c r="AR48" s="25">
-        <f>(AP48+AL48+F48+AH48+AD48+Z48+V48+R48+N48+J48)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR48" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>91</v>
       </c>
@@ -5098,33 +5056,33 @@
       <c r="E49" s="3"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="16"/>
+      <c r="AE49" s="15"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="2"/>
@@ -5137,12 +5095,12 @@
       <c r="AO49" s="3"/>
       <c r="AP49" s="2"/>
       <c r="AQ49" s="3"/>
-      <c r="AR49" s="25">
-        <f>(AP49+AL49+F49+AH49+AD49+Z49+V49+R49+N49+J49)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR49" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -5156,33 +5114,33 @@
       <c r="E50" s="3"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="16"/>
+      <c r="AE50" s="15"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="2"/>
@@ -5195,12 +5153,12 @@
       <c r="AO50" s="3"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="3"/>
-      <c r="AR50" s="25">
-        <f>(AP50+AL50+F50+AH50+AD50+Z50+V50+R50+N50+J50)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR50" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -5214,33 +5172,33 @@
       <c r="E51" s="3"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="16"/>
+      <c r="AE51" s="15"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="2"/>
@@ -5253,50 +5211,50 @@
       <c r="AO51" s="3"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="3"/>
-      <c r="AR51" s="25">
-        <f>(AP51+AL51+F51+AH51+AD51+Z51+V51+R51+N51+J51)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A52" s="24" t="s">
+      <c r="AR51" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22" t="s">
         <v>131</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="16"/>
+      <c r="AE52" s="15"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="2"/>
@@ -5309,52 +5267,52 @@
       <c r="AO52" s="3"/>
       <c r="AP52" s="2"/>
       <c r="AQ52" s="3"/>
-      <c r="AR52" s="25">
-        <f>(AP52+AL52+F52+AH52+AD52+Z52+V52+R52+N52+J52)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
+      <c r="AR52" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="3">
         <v>390500</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="16"/>
+      <c r="AE53" s="15"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="2"/>
@@ -5367,52 +5325,52 @@
       <c r="AO53" s="3"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="3"/>
-      <c r="AR53" s="25">
-        <f>(AP53+AL53+F53+AH53+AD53+Z53+V53+R53+N53+J53)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A54" s="17" t="s">
+      <c r="AR53" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="3">
         <v>390497</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
       <c r="AD54" s="2"/>
-      <c r="AE54" s="16"/>
+      <c r="AE54" s="15"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="2"/>
@@ -5425,52 +5383,52 @@
       <c r="AO54" s="3"/>
       <c r="AP54" s="2"/>
       <c r="AQ54" s="3"/>
-      <c r="AR54" s="25">
-        <f>(AP54+AL54+F54+AH54+AD54+Z54+V54+R54+N54+J54)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="AR54" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>390515</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="16"/>
+      <c r="AE55" s="15"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="2"/>
@@ -5483,52 +5441,52 @@
       <c r="AO55" s="3"/>
       <c r="AP55" s="2"/>
       <c r="AQ55" s="3"/>
-      <c r="AR55" s="25">
-        <f>(AP55+AL55+F55+AH55+AD55+Z55+V55+R55+N55+J55)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="AR55" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B56" s="3">
         <v>390512</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="16"/>
+      <c r="AE56" s="15"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
       <c r="AH56" s="2"/>
@@ -5541,52 +5499,52 @@
       <c r="AO56" s="3"/>
       <c r="AP56" s="2"/>
       <c r="AQ56" s="3"/>
-      <c r="AR56" s="25">
-        <f>(AP56+AL56+F56+AH56+AD56+Z56+V56+R56+N56+J56)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR56" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="3">
         <v>390414</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="16"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
       <c r="AD57" s="2"/>
-      <c r="AE57" s="16"/>
+      <c r="AE57" s="15"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
       <c r="AH57" s="2"/>
@@ -5599,52 +5557,52 @@
       <c r="AO57" s="3"/>
       <c r="AP57" s="2"/>
       <c r="AQ57" s="3"/>
-      <c r="AR57" s="25">
-        <f>(AP57+AL57+F57+AH57+AD57+Z57+V57+R57+N57+J57)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR57" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B58" s="3">
         <v>390483</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="16"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="16"/>
+      <c r="AE58" s="15"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="2"/>
@@ -5657,52 +5615,52 @@
       <c r="AO58" s="3"/>
       <c r="AP58" s="2"/>
       <c r="AQ58" s="3"/>
-      <c r="AR58" s="25">
-        <f>(AP58+AL58+F58+AH58+AD58+Z58+V58+R58+N58+J58)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR58" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="3">
         <v>390491</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="16"/>
+      <c r="AE59" s="15"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="2"/>
@@ -5715,52 +5673,52 @@
       <c r="AO59" s="3"/>
       <c r="AP59" s="2"/>
       <c r="AQ59" s="3"/>
-      <c r="AR59" s="25">
-        <f>(AP59+AL59+F59+AH59+AD59+Z59+V59+R59+N59+J59)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR59" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B60" s="3">
         <v>390489</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
       <c r="AD60" s="2"/>
-      <c r="AE60" s="16"/>
+      <c r="AE60" s="15"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="2"/>
@@ -5773,52 +5731,52 @@
       <c r="AO60" s="3"/>
       <c r="AP60" s="2"/>
       <c r="AQ60" s="3"/>
-      <c r="AR60" s="25">
-        <f>(AP60+AL60+F60+AH60+AD60+Z60+V60+R60+N60+J60)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR60" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B61" s="3">
         <v>390438</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="2"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
       <c r="AD61" s="2"/>
-      <c r="AE61" s="16"/>
+      <c r="AE61" s="15"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="2"/>
@@ -5831,52 +5789,52 @@
       <c r="AO61" s="3"/>
       <c r="AP61" s="2"/>
       <c r="AQ61" s="3"/>
-      <c r="AR61" s="25">
-        <f>(AP61+AL61+F61+AH61+AD61+Z61+V61+R61+N61+J61)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR61" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B62" s="3">
         <v>390440</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
       <c r="AD62" s="2"/>
-      <c r="AE62" s="16"/>
+      <c r="AE62" s="15"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
       <c r="AH62" s="2"/>
@@ -5889,52 +5847,52 @@
       <c r="AO62" s="3"/>
       <c r="AP62" s="2"/>
       <c r="AQ62" s="3"/>
-      <c r="AR62" s="25">
-        <f>(AP62+AL62+F62+AH62+AD62+Z62+V62+R62+N62+J62)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:44" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AR62" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B63" s="3">
         <v>390407</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
       <c r="N63" s="2"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
       <c r="AD63" s="2"/>
-      <c r="AE63" s="16"/>
+      <c r="AE63" s="15"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
       <c r="AH63" s="2"/>
@@ -5947,52 +5905,52 @@
       <c r="AO63" s="3"/>
       <c r="AP63" s="2"/>
       <c r="AQ63" s="3"/>
-      <c r="AR63" s="25">
-        <f>(AP63+AL63+F63+AH63+AD63+Z63+V63+R63+N63+J63)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR63" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>390625</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
       <c r="AD64" s="2"/>
-      <c r="AE64" s="16"/>
+      <c r="AE64" s="15"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="2"/>
@@ -6005,52 +5963,52 @@
       <c r="AO64" s="3"/>
       <c r="AP64" s="2"/>
       <c r="AQ64" s="3"/>
-      <c r="AR64" s="25">
-        <f>(AP64+AL64+F64+AH64+AD64+Z64+V64+R64+N64+J64)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR64" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="3">
         <v>390628</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
       <c r="AD65" s="2"/>
-      <c r="AE65" s="16"/>
+      <c r="AE65" s="15"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="2"/>
@@ -6063,52 +6021,52 @@
       <c r="AO65" s="3"/>
       <c r="AP65" s="2"/>
       <c r="AQ65" s="3"/>
-      <c r="AR65" s="25">
-        <f>(AP65+AL65+F65+AH65+AD65+Z65+V65+R65+N65+J65)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR65" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B66" s="3">
         <v>390631</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
       <c r="V66" s="2"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
       <c r="AD66" s="2"/>
-      <c r="AE66" s="16"/>
+      <c r="AE66" s="15"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="2"/>
@@ -6121,52 +6079,52 @@
       <c r="AO66" s="3"/>
       <c r="AP66" s="2"/>
       <c r="AQ66" s="3"/>
-      <c r="AR66" s="25">
-        <f>(AP66+AL66+F66+AH66+AD66+Z66+V66+R66+N66+J66)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR66" s="23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B67" s="3">
         <v>390647</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>99</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
       <c r="AD67" s="2"/>
-      <c r="AE67" s="16"/>
+      <c r="AE67" s="15"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="2"/>
@@ -6179,52 +6137,52 @@
       <c r="AO67" s="3"/>
       <c r="AP67" s="2"/>
       <c r="AQ67" s="3"/>
-      <c r="AR67" s="25">
-        <f>(AP67+AL67+F67+AH67+AD67+Z67+V67+R67+N67+J67)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR67" s="23">
+        <f t="shared" ref="AR67:AR87" si="24">(AP67+AL67+F67+AH67+AD67+Z67+V67+R67+N67+J67)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B68" s="3">
         <v>390620</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>89</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:J91" si="22">IF(I68="",0,I68/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
+        <f t="shared" ref="J68:J91" si="25">IF(I68="",0,I68/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
       <c r="AD68" s="2"/>
-      <c r="AE68" s="16"/>
+      <c r="AE68" s="15"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="2"/>
@@ -6237,12 +6195,12 @@
       <c r="AO68" s="3"/>
       <c r="AP68" s="2"/>
       <c r="AQ68" s="3"/>
-      <c r="AR68" s="25">
-        <f>(AP68+AL68+F68+AH68+AD68+Z68+V68+R68+N68+J68)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR68" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
@@ -6256,33 +6214,33 @@
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="16"/>
+      <c r="AE69" s="15"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
       <c r="AH69" s="2"/>
@@ -6295,12 +6253,12 @@
       <c r="AO69" s="3"/>
       <c r="AP69" s="2"/>
       <c r="AQ69" s="3"/>
-      <c r="AR69" s="25">
-        <f>(AP69+AL69+F69+AH69+AD69+Z69+V69+R69+N69+J69)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR69" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>29</v>
       </c>
@@ -6314,33 +6272,33 @@
       <c r="E70" s="3"/>
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
       <c r="AD70" s="2"/>
-      <c r="AE70" s="16"/>
+      <c r="AE70" s="15"/>
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="2"/>
@@ -6353,12 +6311,12 @@
       <c r="AO70" s="3"/>
       <c r="AP70" s="2"/>
       <c r="AQ70" s="3"/>
-      <c r="AR70" s="25">
-        <f>(AP70+AL70+F70+AH70+AD70+Z70+V70+R70+N70+J70)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR70" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>29</v>
       </c>
@@ -6372,33 +6330,33 @@
       <c r="E71" s="3"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
       <c r="V71" s="2"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
       <c r="AD71" s="2"/>
-      <c r="AE71" s="16"/>
+      <c r="AE71" s="15"/>
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
       <c r="AH71" s="2"/>
@@ -6411,12 +6369,12 @@
       <c r="AO71" s="3"/>
       <c r="AP71" s="2"/>
       <c r="AQ71" s="3"/>
-      <c r="AR71" s="25">
-        <f>(AP71+AL71+F71+AH71+AD71+Z71+V71+R71+N71+J71)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR71" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
@@ -6430,33 +6388,33 @@
       <c r="E72" s="3"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="16"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="20"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="18"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
       <c r="Z72" s="2"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
       <c r="AD72" s="2"/>
-      <c r="AE72" s="16"/>
+      <c r="AE72" s="15"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="2"/>
@@ -6469,12 +6427,12 @@
       <c r="AO72" s="3"/>
       <c r="AP72" s="2"/>
       <c r="AQ72" s="3"/>
-      <c r="AR72" s="25">
-        <f>(AP72+AL72+F72+AH72+AD72+Z72+V72+R72+N72+J72)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR72" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>107</v>
       </c>
@@ -6488,33 +6446,33 @@
       <c r="E73" s="3"/>
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="16"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="20"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="18"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
       <c r="V73" s="2"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
       <c r="Z73" s="2"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
       <c r="AD73" s="2"/>
-      <c r="AE73" s="16"/>
+      <c r="AE73" s="15"/>
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
       <c r="AH73" s="2"/>
@@ -6527,12 +6485,12 @@
       <c r="AO73" s="3"/>
       <c r="AP73" s="2"/>
       <c r="AQ73" s="3"/>
-      <c r="AR73" s="25">
-        <f>(AP73+AL73+F73+AH73+AD73+Z73+V73+R73+N73+J73)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR73" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>33</v>
       </c>
@@ -6546,33 +6504,33 @@
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="16"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="20"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="18"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
       <c r="N74" s="2"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
       <c r="V74" s="2"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
       <c r="Z74" s="2"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
       <c r="AD74" s="2"/>
-      <c r="AE74" s="16"/>
+      <c r="AE74" s="15"/>
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
       <c r="AH74" s="2"/>
@@ -6585,12 +6543,12 @@
       <c r="AO74" s="3"/>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="3"/>
-      <c r="AR74" s="25">
-        <f>(AP74+AL74+F74+AH74+AD74+Z74+V74+R74+N74+J74)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR74" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>120</v>
       </c>
@@ -6604,33 +6562,33 @@
       <c r="E75" s="3"/>
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="16"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="20"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="18"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
       <c r="R75" s="2"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
       <c r="V75" s="2"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
       <c r="AD75" s="2"/>
-      <c r="AE75" s="16"/>
+      <c r="AE75" s="15"/>
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
       <c r="AH75" s="2"/>
@@ -6643,12 +6601,12 @@
       <c r="AO75" s="3"/>
       <c r="AP75" s="2"/>
       <c r="AQ75" s="3"/>
-      <c r="AR75" s="25">
-        <f>(AP75+AL75+F75+AH75+AD75+Z75+V75+R75+N75+J75)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR75" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -6662,33 +6620,33 @@
       <c r="E76" s="3"/>
       <c r="F76" s="2"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="16"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="20"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
       <c r="N76" s="2"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
       <c r="V76" s="2"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="16"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
       <c r="AD76" s="2"/>
-      <c r="AE76" s="16"/>
+      <c r="AE76" s="15"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
       <c r="AH76" s="2"/>
@@ -6701,12 +6659,12 @@
       <c r="AO76" s="3"/>
       <c r="AP76" s="2"/>
       <c r="AQ76" s="3"/>
-      <c r="AR76" s="25">
-        <f>(AP76+AL76+F76+AH76+AD76+Z76+V76+R76+N76+J76)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR76" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>133</v>
       </c>
@@ -6720,33 +6678,33 @@
       <c r="E77" s="3"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="16"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="20"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="18"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
       <c r="N77" s="2"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
       <c r="V77" s="2"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
       <c r="AD77" s="2"/>
-      <c r="AE77" s="16"/>
+      <c r="AE77" s="15"/>
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="2"/>
@@ -6759,12 +6717,12 @@
       <c r="AO77" s="3"/>
       <c r="AP77" s="2"/>
       <c r="AQ77" s="3"/>
-      <c r="AR77" s="25">
-        <f>(AP77+AL77+F77+AH77+AD77+Z77+V77+R77+N77+J77)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR77" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>148</v>
       </c>
@@ -6778,33 +6736,33 @@
       <c r="E78" s="3"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="16"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="18"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
       <c r="N78" s="2"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
       <c r="V78" s="2"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="16"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
       <c r="Z78" s="2"/>
-      <c r="AA78" s="16"/>
-      <c r="AB78" s="16"/>
-      <c r="AC78" s="16"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
       <c r="AD78" s="2"/>
-      <c r="AE78" s="16"/>
+      <c r="AE78" s="15"/>
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
       <c r="AH78" s="2"/>
@@ -6817,12 +6775,12 @@
       <c r="AO78" s="3"/>
       <c r="AP78" s="2"/>
       <c r="AQ78" s="3"/>
-      <c r="AR78" s="25">
-        <f>(AP78+AL78+F78+AH78+AD78+Z78+V78+R78+N78+J78)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR78" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>34</v>
       </c>
@@ -6836,33 +6794,33 @@
       <c r="E79" s="3"/>
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="16"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="20"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="18"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
       <c r="N79" s="2"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
       <c r="V79" s="2"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="16"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
       <c r="AD79" s="2"/>
-      <c r="AE79" s="16"/>
+      <c r="AE79" s="15"/>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="2"/>
@@ -6875,12 +6833,12 @@
       <c r="AO79" s="3"/>
       <c r="AP79" s="2"/>
       <c r="AQ79" s="3"/>
-      <c r="AR79" s="25">
-        <f>(AP79+AL79+F79+AH79+AD79+Z79+V79+R79+N79+J79)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR79" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>36</v>
       </c>
@@ -6894,33 +6852,33 @@
       <c r="E80" s="3"/>
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="16"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="20"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="18"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
       <c r="R80" s="2"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
       <c r="V80" s="2"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
       <c r="Z80" s="2"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
       <c r="AD80" s="2"/>
-      <c r="AE80" s="16"/>
+      <c r="AE80" s="15"/>
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
       <c r="AH80" s="2"/>
@@ -6933,12 +6891,12 @@
       <c r="AO80" s="3"/>
       <c r="AP80" s="2"/>
       <c r="AQ80" s="3"/>
-      <c r="AR80" s="25">
-        <f>(AP80+AL80+F80+AH80+AD80+Z80+V80+R80+N80+J80)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR80" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -6952,33 +6910,33 @@
       <c r="E81" s="3"/>
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="16"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="20"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="18"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="16"/>
-      <c r="AB81" s="16"/>
-      <c r="AC81" s="16"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
       <c r="AD81" s="2"/>
-      <c r="AE81" s="16"/>
+      <c r="AE81" s="15"/>
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
       <c r="AH81" s="2"/>
@@ -6991,12 +6949,12 @@
       <c r="AO81" s="3"/>
       <c r="AP81" s="2"/>
       <c r="AQ81" s="3"/>
-      <c r="AR81" s="25">
-        <f>(AP81+AL81+F81+AH81+AD81+Z81+V81+R81+N81+J81)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR81" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>38</v>
       </c>
@@ -7010,33 +6968,33 @@
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="16"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="20"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="18"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
       <c r="N82" s="2"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
       <c r="V82" s="2"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="16"/>
-      <c r="AB82" s="16"/>
-      <c r="AC82" s="16"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
       <c r="AD82" s="2"/>
-      <c r="AE82" s="16"/>
+      <c r="AE82" s="15"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
       <c r="AH82" s="2"/>
@@ -7049,12 +7007,12 @@
       <c r="AO82" s="3"/>
       <c r="AP82" s="2"/>
       <c r="AQ82" s="3"/>
-      <c r="AR82" s="25">
-        <f>(AP82+AL82+F82+AH82+AD82+Z82+V82+R82+N82+J82)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR82" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>40</v>
       </c>
@@ -7068,33 +7026,33 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="16"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="20"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="18"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
       <c r="N83" s="2"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
       <c r="R83" s="2"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
       <c r="V83" s="2"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
       <c r="Z83" s="2"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16"/>
-      <c r="AC83" s="16"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
       <c r="AD83" s="2"/>
-      <c r="AE83" s="16"/>
+      <c r="AE83" s="15"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
       <c r="AH83" s="2"/>
@@ -7107,12 +7065,12 @@
       <c r="AO83" s="3"/>
       <c r="AP83" s="2"/>
       <c r="AQ83" s="3"/>
-      <c r="AR83" s="25">
-        <f>(AP83+AL83+F83+AH83+AD83+Z83+V83+R83+N83+J83)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR83" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>42</v>
       </c>
@@ -7126,33 +7084,33 @@
       <c r="E84" s="3"/>
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="16"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="18"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
       <c r="R84" s="2"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
       <c r="V84" s="2"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
       <c r="Z84" s="2"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="16"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
       <c r="AD84" s="2"/>
-      <c r="AE84" s="16"/>
+      <c r="AE84" s="15"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
       <c r="AH84" s="2"/>
@@ -7165,13 +7123,13 @@
       <c r="AO84" s="3"/>
       <c r="AP84" s="2"/>
       <c r="AQ84" s="3"/>
-      <c r="AR84" s="25">
-        <f>(AP84+AL84+F84+AH84+AD84+Z84+V84+R84+N84+J84)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A85" s="27" t="s">
+      <c r="AR84" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A85" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B85" s="4">
@@ -7185,70 +7143,70 @@
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="2">
-        <f t="shared" ref="F85:F87" si="23">IF(E85="",0,E85/140*100)</f>
+        <f t="shared" ref="F85:F87" si="26">IF(E85="",0,E85/140*100)</f>
         <v>0</v>
       </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="I85" s="20"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20" t="s">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="M85" s="20"/>
+      <c r="M85" s="18"/>
       <c r="N85" s="2">
-        <f t="shared" ref="N85:N91" si="24">IF(M85="",0,M85/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="O85" s="16"/>
-      <c r="P85" s="20" t="s">
+        <f t="shared" ref="N85:N91" si="27">IF(M85="",0,M85/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="15"/>
+      <c r="P85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q85" s="20"/>
+      <c r="Q85" s="18"/>
       <c r="R85" s="2">
-        <f t="shared" ref="R85:R91" si="25">IF(Q85="",0,Q85/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="S85" s="16"/>
-      <c r="T85" s="20" t="s">
+        <f t="shared" ref="R85:R91" si="28">IF(Q85="",0,Q85/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="15"/>
+      <c r="T85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="U85" s="20"/>
+      <c r="U85" s="18"/>
       <c r="V85" s="2">
-        <f t="shared" ref="V85:V91" si="26">IF(U85="",0,U85/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="W85" s="16"/>
-      <c r="X85" s="20" t="s">
+        <f t="shared" ref="V85:V91" si="29">IF(U85="",0,U85/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="W85" s="15"/>
+      <c r="X85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Y85" s="20"/>
+      <c r="Y85" s="18"/>
       <c r="Z85" s="2">
-        <f t="shared" ref="Z85" si="27">IF(Y85="",0,Y85/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="16"/>
-      <c r="AB85" s="20" t="s">
+        <f t="shared" ref="Z85" si="30">IF(Y85="",0,Y85/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="AC85" s="20"/>
+      <c r="AC85" s="18"/>
       <c r="AD85" s="2">
-        <f t="shared" ref="AD85:AD91" si="28">IF(AC85="",0,AC85/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="AE85" s="16"/>
+        <f t="shared" ref="AD85:AD91" si="31">IF(AC85="",0,AC85/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="15"/>
       <c r="AF85" s="3">
         <v>66</v>
       </c>
       <c r="AG85" s="3"/>
       <c r="AH85" s="2">
-        <f t="shared" ref="AH85:AH90" si="29">IF(AG85="",0,AG85/120*100)</f>
+        <f t="shared" ref="AH85:AH90" si="32">IF(AG85="",0,AG85/120*100)</f>
         <v>0</v>
       </c>
       <c r="AI85" s="3"/>
@@ -7257,7 +7215,7 @@
       </c>
       <c r="AK85" s="3"/>
       <c r="AL85" s="2">
-        <f t="shared" ref="AL85:AL88" si="30">IF(AK85="",0,AK85/140*100)</f>
+        <f t="shared" ref="AL85:AL88" si="33">IF(AK85="",0,AK85/140*100)</f>
         <v>0</v>
       </c>
       <c r="AM85" s="3"/>
@@ -7266,17 +7224,17 @@
       </c>
       <c r="AO85" s="3"/>
       <c r="AP85" s="2">
-        <f t="shared" ref="AP85" si="31">IF(AO85="",0,AO85/140*100)</f>
+        <f t="shared" ref="AP85" si="34">IF(AO85="",0,AO85/140*100)</f>
         <v>0</v>
       </c>
       <c r="AQ85" s="3"/>
-      <c r="AR85" s="25">
-        <f>(AP85+AL85+F85+AH85+AD85+Z85+V85+R85+N85+J85)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A86" s="27" t="s">
+      <c r="AR85" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A86" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B86" s="4">
@@ -7289,39 +7247,39 @@
       <c r="E86" s="3"/>
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
       <c r="J86" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
       <c r="N86" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O86" s="16"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="15"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
       <c r="R86" s="2"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
       <c r="V86" s="2"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="20"/>
-      <c r="Y86" s="20"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
       <c r="Z86" s="2"/>
-      <c r="AA86" s="16"/>
-      <c r="AB86" s="20"/>
-      <c r="AC86" s="20"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
       <c r="AD86" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE86" s="16"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="15"/>
       <c r="AF86" s="3">
         <v>67</v>
       </c>
@@ -7338,13 +7296,13 @@
       <c r="AO86" s="3"/>
       <c r="AP86" s="2"/>
       <c r="AQ86" s="3"/>
-      <c r="AR86" s="25">
-        <f>(AP86+AL86+F86+AH86+AD86+Z86+V86+R86+N86+J86)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A87" s="27" t="s">
+      <c r="AR86" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A87" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="4">
@@ -7358,49 +7316,49 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="20" t="s">
+      <c r="H87" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="I87" s="20"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20" t="s">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="M87" s="20"/>
+      <c r="M87" s="18"/>
       <c r="N87" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="16"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="15"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
       <c r="R87" s="2"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
       <c r="V87" s="2"/>
-      <c r="W87" s="16"/>
-      <c r="X87" s="20"/>
-      <c r="Y87" s="20"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
       <c r="Z87" s="2"/>
-      <c r="AA87" s="16"/>
-      <c r="AB87" s="20" t="s">
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="AC87" s="20"/>
+      <c r="AC87" s="18"/>
       <c r="AD87" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE87" s="16"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="15"/>
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
       <c r="AH87" s="2"/>
@@ -7414,17 +7372,17 @@
       </c>
       <c r="AO87" s="3"/>
       <c r="AP87" s="2">
-        <f t="shared" ref="AP87" si="32">IF(AO87="",0,AO87/140*100)</f>
+        <f t="shared" ref="AP87" si="35">IF(AO87="",0,AO87/140*100)</f>
         <v>0</v>
       </c>
       <c r="AQ87" s="3"/>
-      <c r="AR87" s="25">
-        <f>(AP87+AL87+F87+AH87+AD87+Z87+V87+R87+N87+J87)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="A88" s="27" t="s">
+      <c r="AR87" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A88" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B88" s="4">
@@ -7437,44 +7395,44 @@
       <c r="E88" s="3"/>
       <c r="F88" s="2"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
       <c r="N88" s="2"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="20" t="s">
+      <c r="O88" s="15"/>
+      <c r="P88" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="Q88" s="20"/>
+      <c r="Q88" s="18"/>
       <c r="R88" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="16"/>
-      <c r="T88" s="20" t="s">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="15"/>
+      <c r="T88" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="U88" s="20"/>
+      <c r="U88" s="18"/>
       <c r="V88" s="2">
         <v>0</v>
       </c>
-      <c r="W88" s="16"/>
-      <c r="X88" s="20" t="s">
+      <c r="W88" s="15"/>
+      <c r="X88" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="Y88" s="20"/>
+      <c r="Y88" s="18"/>
       <c r="Z88" s="2">
-        <f t="shared" ref="Z88" si="33">IF(Y88="",0,Y88/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="20"/>
-      <c r="AC88" s="20"/>
+        <f t="shared" ref="Z88" si="36">IF(Y88="",0,Y88/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="18"/>
+      <c r="AC88" s="18"/>
       <c r="AD88" s="2"/>
-      <c r="AE88" s="16"/>
+      <c r="AE88" s="15"/>
       <c r="AF88" s="3"/>
       <c r="AG88" s="3"/>
       <c r="AH88" s="2"/>
@@ -7484,7 +7442,7 @@
       </c>
       <c r="AK88" s="3"/>
       <c r="AL88" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM88" s="3"/>
@@ -7492,9 +7450,9 @@
       <c r="AO88" s="3"/>
       <c r="AP88" s="2"/>
       <c r="AQ88" s="3"/>
-      <c r="AR88" s="25"/>
-    </row>
-    <row r="89" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AR88" s="23"/>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>93</v>
       </c>
@@ -7508,42 +7466,42 @@
       <c r="E89" s="3"/>
       <c r="F89" s="2"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
       <c r="N89" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="16"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="15"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
       <c r="R89" s="2"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="18"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="20"/>
-      <c r="Y89" s="20"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="18"/>
+      <c r="Y89" s="18"/>
       <c r="Z89" s="2">
-        <f t="shared" ref="Z89:Z91" si="34">IF(Y89="",0,Y89/150*100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="16"/>
-      <c r="AB89" s="20"/>
-      <c r="AC89" s="20"/>
+        <f t="shared" ref="Z89:Z91" si="37">IF(Y89="",0,Y89/150*100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="18"/>
+      <c r="AC89" s="18"/>
       <c r="AD89" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="16"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="15"/>
       <c r="AF89" s="3"/>
       <c r="AG89" s="3"/>
       <c r="AH89" s="2"/>
@@ -7556,12 +7514,12 @@
       <c r="AO89" s="3"/>
       <c r="AP89" s="2"/>
       <c r="AQ89" s="3"/>
-      <c r="AR89" s="25">
+      <c r="AR89" s="23">
         <f>(AP89+AL89+F89+AH89+AD89+Z89+V89+R89+N89+J89)/10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>45</v>
       </c>
@@ -7589,7 +7547,7 @@
         <v>15</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="K90" s="3"/>
@@ -7600,7 +7558,7 @@
         <v>15</v>
       </c>
       <c r="N90" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="O90" s="3"/>
@@ -7611,7 +7569,7 @@
         <v>15</v>
       </c>
       <c r="R90" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="S90" s="3"/>
@@ -7622,7 +7580,7 @@
         <v>15</v>
       </c>
       <c r="V90" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="W90" s="3"/>
@@ -7633,7 +7591,7 @@
         <v>15</v>
       </c>
       <c r="Z90" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="AA90" s="3"/>
@@ -7644,7 +7602,7 @@
         <v>15</v>
       </c>
       <c r="AD90" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AE90" s="3"/>
@@ -7655,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="AH90" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>12.5</v>
       </c>
       <c r="AI90" s="3"/>
@@ -7681,12 +7639,12 @@
         <v>10</v>
       </c>
       <c r="AQ90" s="3"/>
-      <c r="AR90" s="25">
+      <c r="AR90" s="23">
         <f>(AP90+AL90+F90+AH90+AD90+Z90+V90+R90+N90+J90)/10</f>
         <v>10.25</v>
       </c>
     </row>
-    <row r="91" spans="1:44" ht="15.3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>46</v>
       </c>
@@ -7714,7 +7672,7 @@
         <v>25</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16.666666666666664</v>
       </c>
       <c r="K91" s="3"/>
@@ -7725,7 +7683,7 @@
         <v>25</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>16.666666666666664</v>
       </c>
       <c r="O91" s="3"/>
@@ -7736,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="R91" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>16.666666666666664</v>
       </c>
       <c r="S91" s="3"/>
@@ -7747,7 +7705,7 @@
         <v>25</v>
       </c>
       <c r="V91" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>16.666666666666664</v>
       </c>
       <c r="W91" s="3"/>
@@ -7758,7 +7716,7 @@
         <v>25</v>
       </c>
       <c r="Z91" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AA91" s="3"/>
@@ -7769,7 +7727,7 @@
         <v>25</v>
       </c>
       <c r="AD91" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AE91" s="3"/>
@@ -7780,7 +7738,7 @@
         <v>25</v>
       </c>
       <c r="AH91" s="2">
-        <f t="shared" ref="AH91" si="35">IF(AG91="",0,AG91/120*100)</f>
+        <f t="shared" ref="AH91" si="38">IF(AG91="",0,AG91/120*100)</f>
         <v>20.833333333333336</v>
       </c>
       <c r="AI91" s="3"/>
@@ -7806,921 +7764,10 @@
         <v>16.666666666666664</v>
       </c>
       <c r="AQ91" s="3"/>
-      <c r="AR91" s="25">
+      <c r="AR91" s="23">
         <f>(AP91+AL91+F91+AH91+AD91+Z91+V91+R91+N91+J91)/10</f>
         <v>17.083333333333329</v>
       </c>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="A92" s="28"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="19"/>
-      <c r="AB92" s="19"/>
-      <c r="AC92" s="19"/>
-      <c r="AD92" s="8"/>
-      <c r="AE92" s="19"/>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="19"/>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="19"/>
-      <c r="AB93" s="19"/>
-      <c r="AC93" s="19"/>
-      <c r="AD93" s="8"/>
-      <c r="AE93" s="19"/>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="19"/>
-      <c r="X94" s="19"/>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="19"/>
-      <c r="AB94" s="19"/>
-      <c r="AC94" s="19"/>
-      <c r="AD94" s="8"/>
-      <c r="AE94" s="19"/>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="19"/>
-      <c r="T95" s="19"/>
-      <c r="U95" s="19"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="19"/>
-      <c r="X95" s="19"/>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="19"/>
-      <c r="AB95" s="19"/>
-      <c r="AC95" s="19"/>
-      <c r="AD95" s="8"/>
-      <c r="AE95" s="19"/>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="19"/>
-      <c r="T96" s="19"/>
-      <c r="U96" s="19"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="19"/>
-      <c r="X96" s="19"/>
-      <c r="Y96" s="19"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="19"/>
-      <c r="AB96" s="19"/>
-      <c r="AC96" s="19"/>
-      <c r="AD96" s="8"/>
-      <c r="AE96" s="19"/>
-    </row>
-    <row r="97" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="19"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="19"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="19"/>
-      <c r="AD97" s="8"/>
-      <c r="AE97" s="19"/>
-    </row>
-    <row r="98" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="19"/>
-      <c r="T98" s="19"/>
-      <c r="U98" s="19"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="19"/>
-      <c r="X98" s="19"/>
-      <c r="Y98" s="19"/>
-      <c r="Z98" s="8"/>
-      <c r="AA98" s="19"/>
-      <c r="AB98" s="19"/>
-      <c r="AC98" s="19"/>
-      <c r="AD98" s="8"/>
-      <c r="AE98" s="19"/>
-    </row>
-    <row r="99" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="19"/>
-      <c r="X99" s="19"/>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="8"/>
-      <c r="AA99" s="19"/>
-      <c r="AB99" s="19"/>
-      <c r="AC99" s="19"/>
-      <c r="AD99" s="8"/>
-      <c r="AE99" s="19"/>
-    </row>
-    <row r="100" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="19"/>
-      <c r="AB100" s="19"/>
-      <c r="AC100" s="19"/>
-      <c r="AD100" s="8"/>
-      <c r="AE100" s="19"/>
-    </row>
-    <row r="101" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="19"/>
-      <c r="AB101" s="19"/>
-      <c r="AC101" s="19"/>
-      <c r="AD101" s="8"/>
-      <c r="AE101" s="19"/>
-    </row>
-    <row r="102" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="19"/>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="19"/>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="19"/>
-      <c r="AB102" s="19"/>
-      <c r="AC102" s="19"/>
-      <c r="AD102" s="8"/>
-      <c r="AE102" s="19"/>
-    </row>
-    <row r="103" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="19"/>
-      <c r="AB103" s="19"/>
-      <c r="AC103" s="19"/>
-      <c r="AD103" s="8"/>
-      <c r="AE103" s="19"/>
-    </row>
-    <row r="104" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="19"/>
-      <c r="U104" s="19"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="19"/>
-      <c r="X104" s="19"/>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="8"/>
-      <c r="AA104" s="19"/>
-      <c r="AB104" s="19"/>
-      <c r="AC104" s="19"/>
-      <c r="AD104" s="8"/>
-      <c r="AE104" s="19"/>
-    </row>
-    <row r="105" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="19"/>
-      <c r="T105" s="19"/>
-      <c r="U105" s="19"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="19"/>
-      <c r="X105" s="19"/>
-      <c r="Y105" s="19"/>
-      <c r="Z105" s="8"/>
-      <c r="AA105" s="19"/>
-      <c r="AB105" s="19"/>
-      <c r="AC105" s="19"/>
-      <c r="AD105" s="8"/>
-      <c r="AE105" s="19"/>
-    </row>
-    <row r="106" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="19"/>
-      <c r="T106" s="19"/>
-      <c r="U106" s="19"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="19"/>
-      <c r="X106" s="19"/>
-      <c r="Y106" s="19"/>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="19"/>
-      <c r="AB106" s="19"/>
-      <c r="AC106" s="19"/>
-      <c r="AD106" s="8"/>
-      <c r="AE106" s="19"/>
-    </row>
-    <row r="107" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="19"/>
-      <c r="T107" s="19"/>
-      <c r="U107" s="19"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="19"/>
-      <c r="X107" s="19"/>
-      <c r="Y107" s="19"/>
-      <c r="Z107" s="8"/>
-      <c r="AA107" s="19"/>
-      <c r="AB107" s="19"/>
-      <c r="AC107" s="19"/>
-      <c r="AD107" s="8"/>
-      <c r="AE107" s="19"/>
-    </row>
-    <row r="108" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="8"/>
-      <c r="X108" s="8"/>
-      <c r="Y108" s="8"/>
-      <c r="Z108" s="8"/>
-      <c r="AA108" s="8"/>
-      <c r="AB108" s="8"/>
-      <c r="AC108" s="8"/>
-      <c r="AD108" s="8"/>
-      <c r="AE108" s="8"/>
-    </row>
-    <row r="109" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-      <c r="X109" s="8"/>
-      <c r="Y109" s="8"/>
-      <c r="Z109" s="8"/>
-      <c r="AA109" s="8"/>
-      <c r="AB109" s="8"/>
-      <c r="AC109" s="8"/>
-      <c r="AD109" s="8"/>
-      <c r="AE109" s="8"/>
-    </row>
-    <row r="110" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="8"/>
-      <c r="Y110" s="8"/>
-      <c r="Z110" s="8"/>
-      <c r="AA110" s="8"/>
-      <c r="AB110" s="8"/>
-      <c r="AC110" s="8"/>
-      <c r="AD110" s="8"/>
-      <c r="AE110" s="8"/>
-    </row>
-    <row r="111" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="8"/>
-      <c r="Y111" s="8"/>
-      <c r="Z111" s="8"/>
-      <c r="AA111" s="8"/>
-      <c r="AB111" s="8"/>
-      <c r="AC111" s="8"/>
-      <c r="AD111" s="8"/>
-      <c r="AE111" s="8"/>
-    </row>
-    <row r="112" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="8"/>
-      <c r="Y112" s="8"/>
-      <c r="Z112" s="8"/>
-      <c r="AA112" s="8"/>
-      <c r="AB112" s="8"/>
-      <c r="AC112" s="8"/>
-      <c r="AD112" s="8"/>
-      <c r="AE112" s="8"/>
-    </row>
-    <row r="113" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="8"/>
-      <c r="Y113" s="8"/>
-      <c r="Z113" s="8"/>
-      <c r="AA113" s="8"/>
-      <c r="AB113" s="8"/>
-      <c r="AC113" s="8"/>
-      <c r="AD113" s="8"/>
-      <c r="AE113" s="8"/>
-    </row>
-    <row r="114" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="8"/>
-      <c r="Y114" s="8"/>
-      <c r="Z114" s="8"/>
-      <c r="AA114" s="8"/>
-      <c r="AB114" s="8"/>
-      <c r="AC114" s="8"/>
-      <c r="AD114" s="8"/>
-      <c r="AE114" s="8"/>
-    </row>
-    <row r="115" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="8"/>
-      <c r="Z115" s="8"/>
-      <c r="AA115" s="8"/>
-      <c r="AB115" s="8"/>
-      <c r="AC115" s="8"/>
-      <c r="AD115" s="8"/>
-      <c r="AE115" s="8"/>
-    </row>
-    <row r="116" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="8"/>
-      <c r="Y116" s="8"/>
-      <c r="Z116" s="8"/>
-      <c r="AA116" s="8"/>
-      <c r="AB116" s="8"/>
-      <c r="AC116" s="8"/>
-      <c r="AD116" s="8"/>
-      <c r="AE116" s="8"/>
-    </row>
-    <row r="117" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="8"/>
-      <c r="X117" s="8"/>
-      <c r="Y117" s="8"/>
-      <c r="Z117" s="8"/>
-      <c r="AA117" s="8"/>
-      <c r="AB117" s="8"/>
-      <c r="AC117" s="8"/>
-      <c r="AD117" s="8"/>
-      <c r="AE117" s="8"/>
-    </row>
-    <row r="118" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="8"/>
-      <c r="AA118" s="8"/>
-      <c r="AB118" s="8"/>
-      <c r="AC118" s="8"/>
-      <c r="AD118" s="8"/>
-      <c r="AE118" s="8"/>
-    </row>
-    <row r="119" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="8"/>
-      <c r="Y119" s="8"/>
-      <c r="Z119" s="8"/>
-      <c r="AA119" s="8"/>
-      <c r="AB119" s="8"/>
-      <c r="AC119" s="8"/>
-      <c r="AD119" s="8"/>
-      <c r="AE119" s="8"/>
-    </row>
-    <row r="120" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
-      <c r="AA120" s="8"/>
-      <c r="AB120" s="8"/>
-      <c r="AC120" s="8"/>
-      <c r="AD120" s="8"/>
-      <c r="AE120" s="8"/>
-    </row>
-    <row r="121" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="8"/>
-      <c r="Y121" s="8"/>
-      <c r="Z121" s="8"/>
-      <c r="AA121" s="8"/>
-      <c r="AB121" s="8"/>
-      <c r="AC121" s="8"/>
-      <c r="AD121" s="8"/>
-      <c r="AE121" s="8"/>
-    </row>
-    <row r="122" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="8"/>
-      <c r="Y122" s="8"/>
-      <c r="Z122" s="8"/>
-      <c r="AA122" s="8"/>
-      <c r="AB122" s="8"/>
-      <c r="AC122" s="8"/>
-      <c r="AD122" s="8"/>
-      <c r="AE122" s="8"/>
-    </row>
-    <row r="123" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="8"/>
-      <c r="X123" s="8"/>
-      <c r="Y123" s="8"/>
-      <c r="Z123" s="8"/>
-      <c r="AA123" s="8"/>
-      <c r="AB123" s="8"/>
-      <c r="AC123" s="8"/>
-      <c r="AD123" s="8"/>
-      <c r="AE123" s="8"/>
-    </row>
-    <row r="124" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-      <c r="Z124" s="8"/>
-      <c r="AA124" s="8"/>
-      <c r="AB124" s="8"/>
-      <c r="AC124" s="8"/>
-      <c r="AD124" s="8"/>
-      <c r="AE124" s="8"/>
-    </row>
-    <row r="125" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="8"/>
-      <c r="X125" s="8"/>
-      <c r="Y125" s="8"/>
-      <c r="Z125" s="8"/>
-      <c r="AA125" s="8"/>
-      <c r="AB125" s="8"/>
-      <c r="AC125" s="8"/>
-      <c r="AD125" s="8"/>
-      <c r="AE125" s="8"/>
-    </row>
-    <row r="126" spans="8:31" x14ac:dyDescent="0.4">
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
-      <c r="S126" s="8"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="8"/>
-      <c r="V126" s="8"/>
-      <c r="W126" s="8"/>
-      <c r="X126" s="8"/>
-      <c r="Y126" s="8"/>
-      <c r="Z126" s="8"/>
-      <c r="AA126" s="8"/>
-      <c r="AB126" s="8"/>
-      <c r="AC126" s="8"/>
-      <c r="AD126" s="8"/>
-      <c r="AE126" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
